--- a/tables/palettes.xlsx
+++ b/tables/palettes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@Quarto projects/Rsources_book/Resources/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@GitProjects/@2024/rsources-book/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37066C64-7900-014C-855D-6AE918CF2D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9FC877-8B4D-7446-8B87-5901D5F6A69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="500" windowWidth="24540" windowHeight="13680" xr2:uid="{8252AEAF-031E-1D48-AC70-C14CA5EC7AC2}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>link</t>
   </si>
@@ -179,6 +179,15 @@
   </si>
   <si>
     <t>симуляция colorblind-палитр</t>
+  </si>
+  <si>
+    <t>Regenbogen</t>
+  </si>
+  <si>
+    <t>https://simson.io/regenbogen/</t>
+  </si>
+  <si>
+    <t>цветные палитры для визуализации данных в R, Python и не только</t>
   </si>
 </sst>
 </file>
@@ -534,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1813D5E-0EB5-D443-A292-45D405315877}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -591,135 +600,146 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>37</v>
       </c>
     </row>

--- a/tables/palettes.xlsx
+++ b/tables/palettes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@GitProjects/@2024/rsources-book/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9FC877-8B4D-7446-8B87-5901D5F6A69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0195CCE-9D27-D342-9252-A747C06BC455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="500" windowWidth="24540" windowHeight="13680" xr2:uid="{8252AEAF-031E-1D48-AC70-C14CA5EC7AC2}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>link</t>
   </si>
@@ -188,6 +188,15 @@
   </si>
   <si>
     <t>цветные палитры для визуализации данных в R, Python и не только</t>
+  </si>
+  <si>
+    <t>MetBrewer</t>
+  </si>
+  <si>
+    <t>палитры, вдохновленные работами из Музея искусств Метрополитен в Нью-Йорке</t>
+  </si>
+  <si>
+    <t>https://github.com/BlakeRMills/MetBrewer/tree/main</t>
   </si>
 </sst>
 </file>
@@ -543,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1813D5E-0EB5-D443-A292-45D405315877}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -743,6 +752,17 @@
         <v>37</v>
       </c>
     </row>
+    <row r="18" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tables/palettes.xlsx
+++ b/tables/palettes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@GitProjects/@2024/rsources-book/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0195CCE-9D27-D342-9252-A747C06BC455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8EA89F-6E1D-034D-83C7-3ABAADC17668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="500" windowWidth="24540" windowHeight="13680" xr2:uid="{8252AEAF-031E-1D48-AC70-C14CA5EC7AC2}"/>
   </bookViews>
@@ -196,7 +196,7 @@
     <t>палитры, вдохновленные работами из Музея искусств Метрополитен в Нью-Йорке</t>
   </si>
   <si>
-    <t>https://github.com/BlakeRMills/MetBrewer/tree/main</t>
+    <t>https://github.com/BlakeRMills/MetBrewer/</t>
   </si>
 </sst>
 </file>
@@ -555,7 +555,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
